--- a/ProgressLineChart.xlsx
+++ b/ProgressLineChart.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F93410-A0A5-4CDA-BA34-1DEB0BC369C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{28F93410-A0A5-4CDA-BA34-1DEB0BC369C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51353889-CED6-437F-B003-0516003E408D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgressChart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>FROM:</t>
   </si>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -174,11 +174,6 @@
       <name val="Consolas"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -522,7 +517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{887D5C82-995E-4AF9-A88E-F650491945FF}" type="CELLRANGE">
+                    <a:fld id="{83633847-93E8-4B41-856D-1D2E1569E4C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -556,7 +551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DFBA65C-0EA2-43AD-83B5-9D810791DD98}" type="CELLRANGE">
+                    <a:fld id="{FEF39A12-38C6-410C-B44C-30621259C8C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -590,7 +585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAB628C5-1855-48A2-8B30-5E9A22ECDED0}" type="CELLRANGE">
+                    <a:fld id="{E5BBD2BA-8CA8-421F-B3B7-25BF09BC51AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -624,7 +619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F90EEEF-8BA2-4BA9-8826-195507AC79B3}" type="CELLRANGE">
+                    <a:fld id="{4ACF2BFE-78EA-43F6-86D3-9E93D54E8B58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -658,7 +653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FBC5650-8172-44D1-AAE9-00E83A824DA5}" type="CELLRANGE">
+                    <a:fld id="{641962E2-78E9-43DE-9E05-810076E509ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -692,7 +687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B17D3DD-9242-4187-8898-ED6FAC1275DE}" type="CELLRANGE">
+                    <a:fld id="{682F2B2D-C71C-4103-B347-FA1C67D965B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -726,7 +721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8C04EF8-6596-4BF6-AB73-CC53D9C8C306}" type="CELLRANGE">
+                    <a:fld id="{4E2034EB-2057-4A06-9FB5-40E6B8C2B137}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -796,7 +791,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$14</c:f>
+              <c:f>ProgressChart!$C$8:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -828,7 +823,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$8:$B$14</c15:f>
+                <c15:f>ProgressChart!$B$8:$B$14</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
@@ -890,7 +885,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$14</c:f>
+              <c:f>ProgressChart!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -922,6 +917,624 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9143-4913-80A5-3A2421D7B0FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181150960"/>
+        <c:axId val="181151376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181150960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181151376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181151376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181150960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Progress Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5374890638670183E-2"/>
+          <c:y val="0.10126577792583234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gray</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="127000" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FEB8C880-774D-4342-98A3-7345F74964A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{77845505-3446-4A46-AF45-90EE490ED5DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7F601BC-D4A3-4B43-A2DD-295E842D610F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F18FC14B-1647-4860-B378-CD53BC30FBB7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B57A72AC-5C88-426E-A863-1FF8D09F0447}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{24747CC1-3AEC-47A4-94D4-5F3E4BDEBF2E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{60239D46-4E4B-45CF-9D7E-7BBF38292B34}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-670C-447A-95EF-4B0BD7A833FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ProgressChart!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ProgressChart!$B$8:$B$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-670C-447A-95EF-4B0BD7A833FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ProgressChart!$F$20:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-670C-447A-95EF-4B0BD7A833FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1058,6 +1671,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1574,8 +2227,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1587,11 +2756,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,7 +2768,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="E26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="E26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,7 +2791,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571847EC-0442-4F8B-5D05-CED55B340B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,14 +2878,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -1725,7 +2899,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126A1915-7921-46EF-AEFE-002A9F863049}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1765,20 +2939,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -1787,7 +2966,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED22C80-1029-4538-B5A0-DB81C40FFB38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1827,20 +3006,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -1849,7 +3033,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5537024-7B28-4169-A6E7-D8BA0AB8810E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1889,20 +3073,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -1911,7 +3100,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A98BD07-7E76-4B68-BD7F-5F700431B5AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1951,20 +3140,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -1973,7 +3167,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98571DFB-6A04-48C9-B117-71410A7F9651}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2013,20 +3207,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="304800" cy="219075"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -2035,7 +3234,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0133883D-FE0F-4E97-8A82-99E09FEBFA38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2075,10 +3274,48 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A57A41-4636-4A0F-A297-B082D353065C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2288,10 +3525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q5:Q7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2448,69 +3685,102 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="e">
+        <f>IF(E20,1,NA())</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F26" si="0">IF(E21,1,NA())</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
+      <c r="F25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
